--- a/static/clientTemplate.xlsx
+++ b/static/clientTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息表" sheetId="1" r:id="rId1"/>
@@ -87,13 +87,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,7 +104,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,8 +180,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,89 +211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,25 +225,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,13 +256,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,37 +388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,127 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +447,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,6 +485,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,59 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,6 +538,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,141 +567,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1042,16 +1038,17 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="8" width="9" style="2"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="8" width="9" style="1"/>
     <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="11" width="35.75" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9" style="3"/>
+    <col min="10" max="11" width="35.75" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1073,19 +1070,19 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1094,10 +1091,10 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1106,7 +1103,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A1 A2:A1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A1 A2:A5 A6:A1048576" errorStyle="warning">
       <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2:C1048576">
@@ -1125,7 +1122,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C1:D1 L1 M2:M1048571 M1" listDataValidation="1"/>
+    <ignoredError sqref="C1:D1 L1 M10:M1048571 M1" listDataValidation="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
